--- a/ScriptsDocs/JDdata .xlsx
+++ b/ScriptsDocs/JDdata .xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="213">
   <si>
     <t>Client name</t>
   </si>
@@ -685,6 +685,12 @@
   </si>
   <si>
     <t>CA_N71668420627</t>
+  </si>
+  <si>
+    <t>JD_Y11668591207</t>
+  </si>
+  <si>
+    <t>CA_G01668591282</t>
   </si>
 </sst>
 </file>
@@ -2354,6 +2360,9 @@
       <c r="Q14" t="s" s="0">
         <v>193</v>
       </c>
+      <c r="R14" t="s" s="0">
+        <v>212</v>
+      </c>
     </row>
     <row r="15" spans="1:18" ht="65.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="15" t="s">
@@ -2839,7 +2848,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BEB9776-B206-4A46-8548-3096CFBA0B28}">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
@@ -2886,6 +2895,14 @@
       </c>
       <c r="H2" t="s" s="0">
         <v>210</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="0">
+        <v>211</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>212</v>
       </c>
     </row>
   </sheetData>

--- a/ScriptsDocs/JDdata .xlsx
+++ b/ScriptsDocs/JDdata .xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7119FDF-A4DF-4589-8E59-5C0E32EC794A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2949A75-B4D5-40DC-8028-2717FEE14AA1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="JD" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="223">
   <si>
     <t>Client name</t>
   </si>
@@ -639,12 +639,6 @@
     <t>./ScriptsDocs/ChromeResumeUpload.exe</t>
   </si>
   <si>
-    <t>./ScriptsDocs/ChromeJdUpload.exe</t>
-  </si>
-  <si>
-    <t>./ScriptsDocs/JdUpload.exe</t>
-  </si>
-  <si>
     <t>Immediate</t>
   </si>
   <si>
@@ -691,13 +685,48 @@
   </si>
   <si>
     <t>CA_G01668591282</t>
+  </si>
+  <si>
+    <t>./ScriptsDocs/neosoftchrome.exe</t>
+  </si>
+  <si>
+    <t>./ScriptsDocs/hynetchrome.exe</t>
+  </si>
+  <si>
+    <t>./ScriptsDocs/f5chrome.exe</t>
+  </si>
+  <si>
+    <t>./ScriptsDocs/neosoftfirefox.exe</t>
+  </si>
+  <si>
+    <t>./ScriptsDocs/oraclejdchrome.exe</t>
+  </si>
+  <si>
+    <t>./ScriptsDocs/oraclejdfirefox.exe</t>
+  </si>
+  <si>
+    <t>./ScriptsDocs/cyberwarechrome.exe</t>
+  </si>
+  <si>
+    <t>./ScriptsDocs/cyberwarefirefox.exe</t>
+  </si>
+  <si>
+    <t>./ScriptsDocs/hynetfirefox.exe</t>
+  </si>
+  <si>
+    <t>./ScriptsDocs/f5firefox.exe</t>
+  </si>
+  <si>
+    <t>./ScriptsDocs/servicenowchrome.exe</t>
+  </si>
+  <si>
+    <t>./ScriptsDocs/servicenowfirefox.exe</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1201,76 +1230,77 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q7"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="S7" sqref="S7"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="5.42578125"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="13.140625"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="14.5703125"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="1" width="10.42578125"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="14.42578125"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="10.0"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="10.28515625"/>
-    <col min="11" max="11" customWidth="true" width="37.42578125"/>
-    <col min="12" max="12" customWidth="true" width="38.28515625"/>
-    <col min="14" max="14" customWidth="true" width="31.5703125"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="12.140625"/>
-    <col min="16" max="16" customWidth="true" width="18.140625"/>
+    <col min="1" max="1" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="37.42578125" customWidth="1"/>
+    <col min="12" max="12" width="38.28515625" customWidth="1"/>
+    <col min="14" max="14" width="31.5703125" customWidth="1"/>
+    <col min="15" max="15" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="32" customWidth="1"/>
+    <col min="17" max="17" width="45.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s" s="0">
+      <c r="A1" t="s">
         <v>10</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s" s="0">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s" s="0">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s" s="0">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s" s="0">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s" s="0">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s" s="0">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s" s="0">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" t="s" s="0">
+      <c r="K1" t="s">
         <v>11</v>
       </c>
-      <c r="L1" t="s" s="0">
+      <c r="L1" t="s">
         <v>12</v>
       </c>
-      <c r="M1" t="s" s="0">
+      <c r="M1" t="s">
         <v>13</v>
       </c>
-      <c r="N1" t="s" s="0">
+      <c r="N1" t="s">
         <v>16</v>
       </c>
-      <c r="O1" t="s" s="0">
+      <c r="O1" t="s">
         <v>15</v>
       </c>
-      <c r="P1" t="s" s="0">
+      <c r="P1" t="s">
         <v>191</v>
       </c>
-      <c r="Q1" t="s" s="0">
+      <c r="Q1" t="s">
         <v>192</v>
       </c>
     </row>
@@ -1321,10 +1351,10 @@
         <v>39</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>195</v>
+        <v>211</v>
       </c>
       <c r="Q2" s="25" t="s">
-        <v>196</v>
+        <v>214</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1374,10 +1404,10 @@
         <v>46</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>195</v>
+        <v>215</v>
       </c>
       <c r="Q3" s="25" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="50.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -1427,10 +1457,10 @@
         <v>56</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
       <c r="Q4" s="25" t="s">
-        <v>196</v>
+        <v>218</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="85.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1480,10 +1510,10 @@
         <v>64</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>195</v>
+        <v>212</v>
       </c>
       <c r="Q5" s="25" t="s">
-        <v>196</v>
+        <v>219</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="77.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -1533,10 +1563,10 @@
         <v>74</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>195</v>
+        <v>213</v>
       </c>
       <c r="Q6" s="25" t="s">
-        <v>196</v>
+        <v>220</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="81" thickBot="1" x14ac:dyDescent="0.3">
@@ -1586,10 +1616,10 @@
         <v>82</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>195</v>
+        <v>221</v>
       </c>
       <c r="Q7" s="25" t="s">
-        <v>196</v>
+        <v>222</v>
       </c>
     </row>
   </sheetData>
@@ -1608,40 +1638,40 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="14.85546875"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="10.85546875"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="9.85546875"/>
+    <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s" s="0">
+      <c r="A1" t="s">
         <v>18</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="B1" t="s">
         <v>19</v>
       </c>
-      <c r="C1" t="s" s="0">
+      <c r="C1" t="s">
         <v>20</v>
       </c>
-      <c r="D1" t="s" s="0">
+      <c r="D1" t="s">
         <v>21</v>
       </c>
-      <c r="E1" t="s" s="0">
+      <c r="E1" t="s">
         <v>25</v>
       </c>
-      <c r="F1" t="s" s="0">
+      <c r="F1" t="s">
         <v>26</v>
       </c>
-      <c r="G1" t="s" s="0">
+      <c r="G1" t="s">
         <v>22</v>
       </c>
-      <c r="H1" t="s" s="0">
+      <c r="H1" t="s">
         <v>23</v>
       </c>
-      <c r="I1" t="s" s="0">
+      <c r="I1" t="s">
         <v>24</v>
       </c>
-      <c r="J1" t="s" s="0">
+      <c r="J1" t="s">
         <v>27</v>
       </c>
       <c r="K1" s="19" t="s">
@@ -1659,10 +1689,10 @@
       <c r="O1" s="19" t="s">
         <v>162</v>
       </c>
-      <c r="P1" t="s" s="0">
+      <c r="P1" t="s">
         <v>191</v>
       </c>
-      <c r="Q1" t="s" s="0">
+      <c r="Q1" t="s">
         <v>192</v>
       </c>
       <c r="R1" s="22" t="s">
@@ -1683,10 +1713,10 @@
         <v>90990999</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>86</v>
@@ -1698,7 +1728,7 @@
         <v>400000</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="K2" s="3" t="s">
         <v>163</v>
@@ -1718,7 +1748,7 @@
       <c r="P2" s="24" t="s">
         <v>194</v>
       </c>
-      <c r="Q2" t="s" s="0">
+      <c r="Q2" t="s">
         <v>193</v>
       </c>
     </row>
@@ -1736,10 +1766,10 @@
         <v>874870138</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="G3" s="13" t="s">
         <v>90</v>
@@ -1751,7 +1781,7 @@
         <v>9000000</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="K3" s="3" t="s">
         <v>165</v>
@@ -1771,7 +1801,7 @@
       <c r="P3" s="24" t="s">
         <v>194</v>
       </c>
-      <c r="Q3" t="s" s="0">
+      <c r="Q3" t="s">
         <v>193</v>
       </c>
     </row>
@@ -1789,10 +1819,10 @@
         <v>232484368</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G4" s="13" t="s">
         <v>94</v>
@@ -1804,7 +1834,7 @@
         <v>2000000</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="K4" s="3" t="s">
         <v>67</v>
@@ -1824,7 +1854,7 @@
       <c r="P4" s="24" t="s">
         <v>194</v>
       </c>
-      <c r="Q4" t="s" s="0">
+      <c r="Q4" t="s">
         <v>193</v>
       </c>
     </row>
@@ -1842,10 +1872,10 @@
         <v>746934679</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G5" s="13" t="s">
         <v>98</v>
@@ -1857,7 +1887,7 @@
         <v>500000</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="K5" s="20" t="s">
         <v>166</v>
@@ -1877,7 +1907,7 @@
       <c r="P5" s="24" t="s">
         <v>194</v>
       </c>
-      <c r="Q5" t="s" s="0">
+      <c r="Q5" t="s">
         <v>193</v>
       </c>
     </row>
@@ -1895,10 +1925,10 @@
         <v>49883429</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G6" s="13" t="s">
         <v>102</v>
@@ -1910,7 +1940,7 @@
         <v>2000000</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="K6" s="20" t="s">
         <v>167</v>
@@ -1930,7 +1960,7 @@
       <c r="P6" s="24" t="s">
         <v>194</v>
       </c>
-      <c r="Q6" t="s" s="0">
+      <c r="Q6" t="s">
         <v>193</v>
       </c>
     </row>
@@ -1948,10 +1978,10 @@
         <v>83834083</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G7" s="13" t="s">
         <v>106</v>
@@ -1963,7 +1993,7 @@
         <v>3000000</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="K7" s="3" t="s">
         <v>168</v>
@@ -1983,7 +2013,7 @@
       <c r="P7" s="24" t="s">
         <v>194</v>
       </c>
-      <c r="Q7" t="s" s="0">
+      <c r="Q7" t="s">
         <v>193</v>
       </c>
     </row>
@@ -2001,10 +2031,10 @@
         <v>82789347</v>
       </c>
       <c r="E8" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="F8" s="3" t="s">
         <v>198</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>200</v>
       </c>
       <c r="G8" s="13" t="s">
         <v>110</v>
@@ -2016,7 +2046,7 @@
         <v>1500000</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>42</v>
@@ -2036,7 +2066,7 @@
       <c r="P8" s="24" t="s">
         <v>194</v>
       </c>
-      <c r="Q8" t="s" s="0">
+      <c r="Q8" t="s">
         <v>193</v>
       </c>
     </row>
@@ -2054,10 +2084,10 @@
         <v>83489349</v>
       </c>
       <c r="E9" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="F9" s="3" t="s">
         <v>198</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>200</v>
       </c>
       <c r="G9" s="13" t="s">
         <v>114</v>
@@ -2069,7 +2099,7 @@
         <v>3000000</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="K9" s="3" t="s">
         <v>42</v>
@@ -2089,7 +2119,7 @@
       <c r="P9" s="24" t="s">
         <v>194</v>
       </c>
-      <c r="Q9" t="s" s="0">
+      <c r="Q9" t="s">
         <v>193</v>
       </c>
     </row>
@@ -2107,10 +2137,10 @@
         <v>87439862</v>
       </c>
       <c r="E10" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="F10" s="3" t="s">
         <v>198</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>200</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>118</v>
@@ -2122,7 +2152,7 @@
         <v>5000000</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="K10" s="3" t="s">
         <v>42</v>
@@ -2142,7 +2172,7 @@
       <c r="P10" s="24" t="s">
         <v>194</v>
       </c>
-      <c r="Q10" t="s" s="0">
+      <c r="Q10" t="s">
         <v>193</v>
       </c>
     </row>
@@ -2160,10 +2190,10 @@
         <v>83798309</v>
       </c>
       <c r="E11" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="F11" s="3" t="s">
         <v>198</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>200</v>
       </c>
       <c r="G11" s="13" t="s">
         <v>122</v>
@@ -2175,7 +2205,7 @@
         <v>1000000</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="K11" s="4" t="s">
         <v>67</v>
@@ -2195,7 +2225,7 @@
       <c r="P11" s="24" t="s">
         <v>194</v>
       </c>
-      <c r="Q11" t="s" s="0">
+      <c r="Q11" t="s">
         <v>193</v>
       </c>
     </row>
@@ -2213,10 +2243,10 @@
         <v>93829282</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="G12" s="13" t="s">
         <v>126</v>
@@ -2228,7 +2258,7 @@
         <v>5000000</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="K12" s="4" t="s">
         <v>67</v>
@@ -2248,7 +2278,7 @@
       <c r="P12" s="24" t="s">
         <v>194</v>
       </c>
-      <c r="Q12" t="s" s="0">
+      <c r="Q12" t="s">
         <v>193</v>
       </c>
     </row>
@@ -2266,10 +2296,10 @@
         <v>830908888</v>
       </c>
       <c r="E13" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="F13" s="3" t="s">
         <v>198</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>200</v>
       </c>
       <c r="G13" s="13" t="s">
         <v>130</v>
@@ -2281,7 +2311,7 @@
         <v>1000000</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="K13" s="3" t="s">
         <v>169</v>
@@ -2301,11 +2331,11 @@
       <c r="P13" s="24" t="s">
         <v>194</v>
       </c>
-      <c r="Q13" t="s" s="0">
+      <c r="Q13" t="s">
         <v>193</v>
       </c>
-      <c r="R13" t="s" s="0">
-        <v>204</v>
+      <c r="R13" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="14" spans="1:18" ht="65.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -2322,10 +2352,10 @@
         <v>823782</v>
       </c>
       <c r="E14" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="F14" s="3" t="s">
         <v>198</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>200</v>
       </c>
       <c r="G14" s="13" t="s">
         <v>133</v>
@@ -2337,7 +2367,7 @@
         <v>1000000</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="K14" s="4" t="s">
         <v>67</v>
@@ -2357,11 +2387,11 @@
       <c r="P14" s="24" t="s">
         <v>194</v>
       </c>
-      <c r="Q14" t="s" s="0">
+      <c r="Q14" t="s">
         <v>193</v>
       </c>
-      <c r="R14" t="s" s="0">
-        <v>212</v>
+      <c r="R14" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="15" spans="1:18" ht="65.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -2378,10 +2408,10 @@
         <v>209898</v>
       </c>
       <c r="E15" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="F15" s="3" t="s">
         <v>198</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>200</v>
       </c>
       <c r="G15" s="13" t="s">
         <v>137</v>
@@ -2393,7 +2423,7 @@
         <v>1000000</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="K15" s="4" t="s">
         <v>67</v>
@@ -2413,7 +2443,7 @@
       <c r="P15" s="24" t="s">
         <v>194</v>
       </c>
-      <c r="Q15" t="s" s="0">
+      <c r="Q15" t="s">
         <v>193</v>
       </c>
     </row>
@@ -2431,10 +2461,10 @@
         <v>84738937</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G16" s="13" t="s">
         <v>141</v>
@@ -2446,7 +2476,7 @@
         <v>3000000</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="K16" s="4" t="s">
         <v>67</v>
@@ -2466,7 +2496,7 @@
       <c r="P16" s="24" t="s">
         <v>194</v>
       </c>
-      <c r="Q16" t="s" s="0">
+      <c r="Q16" t="s">
         <v>193</v>
       </c>
     </row>
@@ -2484,10 +2514,10 @@
         <v>9292989</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G17" s="13" t="s">
         <v>145</v>
@@ -2499,7 +2529,7 @@
         <v>1000000</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="K17" s="21" t="s">
         <v>170</v>
@@ -2519,7 +2549,7 @@
       <c r="P17" s="24" t="s">
         <v>194</v>
       </c>
-      <c r="Q17" t="s" s="0">
+      <c r="Q17" t="s">
         <v>193</v>
       </c>
     </row>
@@ -2537,10 +2567,10 @@
         <v>87836842</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G18" s="13" t="s">
         <v>149</v>
@@ -2552,7 +2582,7 @@
         <v>1000000</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="K18" s="20" t="s">
         <v>166</v>
@@ -2572,7 +2602,7 @@
       <c r="P18" s="24" t="s">
         <v>194</v>
       </c>
-      <c r="Q18" t="s" s="0">
+      <c r="Q18" t="s">
         <v>193</v>
       </c>
     </row>
@@ -2590,10 +2620,10 @@
         <v>2748478</v>
       </c>
       <c r="E19" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="F19" s="3" t="s">
         <v>199</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>201</v>
       </c>
       <c r="G19" s="13" t="s">
         <v>153</v>
@@ -2605,7 +2635,7 @@
         <v>1000000</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="K19" s="21" t="s">
         <v>171</v>
@@ -2625,7 +2655,7 @@
       <c r="P19" s="24" t="s">
         <v>194</v>
       </c>
-      <c r="Q19" t="s" s="0">
+      <c r="Q19" t="s">
         <v>193</v>
       </c>
     </row>
@@ -2643,10 +2673,10 @@
         <v>79787276</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G20" s="13" t="s">
         <v>157</v>
@@ -2658,7 +2688,7 @@
         <v>1000000</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="K20" s="3" t="s">
         <v>49</v>
@@ -2678,7 +2708,7 @@
       <c r="P20" s="24" t="s">
         <v>194</v>
       </c>
-      <c r="Q20" t="s" s="0">
+      <c r="Q20" t="s">
         <v>193</v>
       </c>
     </row>
@@ -2698,145 +2728,145 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" t="s" s="0">
+      <c r="A1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" t="s" s="0">
+      <c r="A2" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="0">
+      <c r="B2">
         <v>60</v>
       </c>
-      <c r="C2" t="s" s="0">
+      <c r="C2" t="s">
         <v>175</v>
       </c>
-      <c r="D2" s="0">
+      <c r="D2">
         <v>30</v>
       </c>
-      <c r="E2" t="s" s="0">
+      <c r="E2" t="s">
         <v>174</v>
       </c>
-      <c r="F2" s="0">
+      <c r="F2">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" t="s" s="0">
+      <c r="A3" t="s">
         <v>73</v>
       </c>
-      <c r="B3" s="0">
+      <c r="B3">
         <v>30</v>
       </c>
-      <c r="C3" t="s" s="0">
+      <c r="C3" t="s">
         <v>176</v>
       </c>
-      <c r="D3" s="0">
+      <c r="D3">
         <v>15</v>
       </c>
-      <c r="E3" t="s" s="0">
+      <c r="E3" t="s">
         <v>173</v>
       </c>
-      <c r="F3" s="0">
+      <c r="F3">
         <v>15</v>
       </c>
-      <c r="G3" t="s" s="0">
+      <c r="G3" t="s">
         <v>56</v>
       </c>
-      <c r="H3" s="0">
+      <c r="H3">
         <v>30</v>
       </c>
-      <c r="I3" t="s" s="0">
+      <c r="I3" t="s">
         <v>177</v>
       </c>
-      <c r="J3" s="0">
+      <c r="J3">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" t="s" s="0">
+      <c r="A4" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="0">
+      <c r="B4">
         <v>30</v>
       </c>
-      <c r="C4" t="s" s="0">
+      <c r="C4" t="s">
         <v>56</v>
       </c>
-      <c r="D4" s="0">
+      <c r="D4">
         <v>30</v>
       </c>
-      <c r="E4" t="s" s="0">
+      <c r="E4" t="s">
         <v>178</v>
       </c>
-      <c r="F4" s="0">
+      <c r="F4">
         <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" t="s" s="0">
+      <c r="A5" t="s">
         <v>63</v>
       </c>
-      <c r="B5" s="0">
+      <c r="B5">
         <v>30</v>
       </c>
-      <c r="C5" t="s" s="0">
+      <c r="C5" t="s">
         <v>179</v>
       </c>
-      <c r="D5" s="0">
+      <c r="D5">
         <v>30</v>
       </c>
-      <c r="E5" t="s" s="0">
+      <c r="E5" t="s">
         <v>180</v>
       </c>
-      <c r="F5" s="0">
+      <c r="F5">
         <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" t="s" s="0">
+      <c r="A6" t="s">
         <v>73</v>
       </c>
-      <c r="B6" s="0">
+      <c r="B6">
         <v>30</v>
       </c>
-      <c r="C6" t="s" s="0">
+      <c r="C6" t="s">
         <v>181</v>
       </c>
-      <c r="D6" s="0">
+      <c r="D6">
         <v>30</v>
       </c>
-      <c r="E6" t="s" s="0">
+      <c r="E6" t="s">
         <v>173</v>
       </c>
-      <c r="F6" s="0">
+      <c r="F6">
         <v>20</v>
       </c>
-      <c r="G6" t="s" s="0">
+      <c r="G6" t="s">
         <v>176</v>
       </c>
-      <c r="H6" s="0">
+      <c r="H6">
         <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" t="s" s="0">
+      <c r="A7" t="s">
         <v>37</v>
       </c>
-      <c r="B7" s="0">
+      <c r="B7">
         <v>60</v>
       </c>
-      <c r="C7" t="s" s="0">
+      <c r="C7" t="s">
         <v>182</v>
       </c>
-      <c r="D7" s="0">
+      <c r="D7">
         <v>30</v>
       </c>
-      <c r="E7" t="s" s="0">
+      <c r="E7" t="s">
         <v>174</v>
       </c>
-      <c r="F7" s="0">
+      <c r="F7">
         <v>10</v>
       </c>
     </row>
@@ -2850,59 +2880,59 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BEB9776-B206-4A46-8548-3096CFBA0B28}">
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="16.42578125"/>
-    <col min="2" max="3" bestFit="true" customWidth="true" width="17.42578125"/>
-    <col min="4" max="5" bestFit="true" customWidth="true" width="16.5703125"/>
-    <col min="6" max="7" bestFit="true" customWidth="true" width="16.85546875"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="17.0"/>
+    <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" t="s" s="0">
+      <c r="A1" t="s">
         <v>31</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="B1" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" t="s" s="0">
+      <c r="A2" t="s">
         <v>190</v>
       </c>
-      <c r="B2" t="s" s="0">
+      <c r="B2" t="s">
+        <v>202</v>
+      </c>
+      <c r="C2" t="s">
+        <v>203</v>
+      </c>
+      <c r="D2" t="s">
         <v>204</v>
       </c>
-      <c r="C2" t="s" s="0">
+      <c r="E2" t="s">
         <v>205</v>
       </c>
-      <c r="D2" t="s" s="0">
+      <c r="F2" t="s">
         <v>206</v>
       </c>
-      <c r="E2" t="s" s="0">
+      <c r="G2" t="s">
         <v>207</v>
       </c>
-      <c r="F2" t="s" s="0">
+      <c r="H2" t="s">
         <v>208</v>
       </c>
-      <c r="G2" t="s" s="0">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>209</v>
       </c>
-      <c r="H2" t="s" s="0">
+      <c r="B3" t="s">
         <v>210</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="0">
-        <v>211</v>
-      </c>
-      <c r="B3" t="s" s="0">
-        <v>212</v>
       </c>
     </row>
   </sheetData>
@@ -2921,7 +2951,7 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s" s="0">
+      <c r="A1" t="s">
         <v>183</v>
       </c>
     </row>

--- a/ScriptsDocs/JDdata .xlsx
+++ b/ScriptsDocs/JDdata .xlsx
@@ -3,16 +3,16 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2949A75-B4D5-40DC-8028-2717FEE14AA1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{851C459C-AE88-499A-BFC3-0BEB105B15AE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="JD" sheetId="1" r:id="rId1"/>
     <sheet name="Candidate" sheetId="4" r:id="rId2"/>
     <sheet name="Skills" sheetId="2" r:id="rId3"/>
-    <sheet name="ids" sheetId="6" r:id="rId4"/>
-    <sheet name="Domain" sheetId="7" r:id="rId5"/>
+    <sheet name="Domain" sheetId="7" r:id="rId4"/>
+    <sheet name="ids" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="262">
   <si>
     <t>Client name</t>
   </si>
@@ -633,12 +633,6 @@
     <t>firefox exe path</t>
   </si>
   <si>
-    <t>./ScriptsDocs/FirefoxResumeUpload.exe</t>
-  </si>
-  <si>
-    <t>./ScriptsDocs/ChromeResumeUpload.exe</t>
-  </si>
-  <si>
     <t>Immediate</t>
   </si>
   <si>
@@ -721,6 +715,129 @@
   </si>
   <si>
     <t>./ScriptsDocs/servicenowfirefox.exe</t>
+  </si>
+  <si>
+    <t>JD_Y51668669392</t>
+  </si>
+  <si>
+    <t>JD_F61668669746</t>
+  </si>
+  <si>
+    <t>CA_S41668669831</t>
+  </si>
+  <si>
+    <t>./ScriptsDocs/resumes/lakshmi-Gfirefox.exe</t>
+  </si>
+  <si>
+    <t>./ScriptsDocs/resumes/lakshmi-Gchrome.exe</t>
+  </si>
+  <si>
+    <t>./ScriptsDocs/resumes/Manoj-Kozhikkalchrome.exe</t>
+  </si>
+  <si>
+    <t>./ScriptsDocs/resumes/MRUNAL-PANDITchrome.exe</t>
+  </si>
+  <si>
+    <t>./ScriptsDocs/resumes/Rafeeq-Achrome.exe</t>
+  </si>
+  <si>
+    <t>./ScriptsDocs/resumes/RajKumar-Rajuchrome.exe</t>
+  </si>
+  <si>
+    <t>./ScriptsDocs/resumes/Ram-Boddepallichrome.exe</t>
+  </si>
+  <si>
+    <t>./ScriptsDocs/resumes/Ramvardhan-Reddychrome.exe</t>
+  </si>
+  <si>
+    <t>./ScriptsDocs/resumes/Manoj-Kozhikkalfirefox.exe</t>
+  </si>
+  <si>
+    <t>./ScriptsDocs/resumes/MRUNAL-PANDITfirefox.exe</t>
+  </si>
+  <si>
+    <t>./ScriptsDocs/resumes/Rafeeq-Afirefox.exe</t>
+  </si>
+  <si>
+    <t>./ScriptsDocs/resumes/Rajagopal-Pchrome.exe</t>
+  </si>
+  <si>
+    <t>./ScriptsDocs/resumes/Rajagopal-Pfirefox.exe</t>
+  </si>
+  <si>
+    <t>./ScriptsDocs/resumes/RajKumar-Rajufirefox.exe</t>
+  </si>
+  <si>
+    <t>./ScriptsDocs/resumes/Ram-Boddepallifirefox.exe</t>
+  </si>
+  <si>
+    <t>./ScriptsDocs/resumes/Ramvardhan-Reddyfirefox.exe</t>
+  </si>
+  <si>
+    <t>./ScriptsDocs/resumes/Sai-teja-Sfirefox.exe</t>
+  </si>
+  <si>
+    <t>./ScriptsDocs/resumes/Sai-teja-Schrome.exe</t>
+  </si>
+  <si>
+    <t>./ScriptsDocs/resumes/Sainath-Nomulachrome.exe</t>
+  </si>
+  <si>
+    <t>./ScriptsDocs/resumes/Sainath-Nomulafirefox.exe</t>
+  </si>
+  <si>
+    <t>./ScriptsDocs/resumes/Sammy-Kellychrome.exe</t>
+  </si>
+  <si>
+    <t>./ScriptsDocs/resumes/Sandeep-Pradhanchrome.exe</t>
+  </si>
+  <si>
+    <t>./ScriptsDocs/resumes/Sammy-Kellyfirefox.exe</t>
+  </si>
+  <si>
+    <t>./ScriptsDocs/resumes/Sandeep-Pradhanfirefox.exe</t>
+  </si>
+  <si>
+    <t>./ScriptsDocs/resumes/SNEHA-SINHAfirefox.exe</t>
+  </si>
+  <si>
+    <t>./ScriptsDocs/resumes/SNEHA-SINHAchrome.exe</t>
+  </si>
+  <si>
+    <t>./ScriptsDocs/resumes/Sowmya-Mchrome.exe</t>
+  </si>
+  <si>
+    <t>./ScriptsDocs/resumes/Sowmya-Mfirefox.exe</t>
+  </si>
+  <si>
+    <t>./ScriptsDocs/resumes/Suguna-Jchrome.exe</t>
+  </si>
+  <si>
+    <t>./ScriptsDocs/resumes/Suhas-Bokadechrome.exe</t>
+  </si>
+  <si>
+    <t>./ScriptsDocs/resumes/Sulochana-gchrome.exe</t>
+  </si>
+  <si>
+    <t>./ScriptsDocs/resumes/Suguna-Jfirefox.exe</t>
+  </si>
+  <si>
+    <t>./ScriptsDocs/resumes/Suhas-Bokadefirefox.exe</t>
+  </si>
+  <si>
+    <t>./ScriptsDocs/resumes/Sulochana-gfirefox.exe</t>
+  </si>
+  <si>
+    <t>./ScriptsDocs/resumes/TUSHAR-VERMAchrome.exe</t>
+  </si>
+  <si>
+    <t>./ScriptsDocs/resumes/TUSHAR-VERMAfirefox.exe</t>
+  </si>
+  <si>
+    <t>./ScriptsDocs/resumes/Veera-Gopisettychrome.exe</t>
+  </si>
+  <si>
+    <t>./ScriptsDocs/resumes/Veera-Gopisettyfirefox.exe</t>
   </si>
 </sst>
 </file>
@@ -1230,7 +1347,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+    <sheetView topLeftCell="L1" workbookViewId="0">
       <selection activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
@@ -1351,10 +1468,10 @@
         <v>39</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="Q2" s="25" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1404,10 +1521,10 @@
         <v>46</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="Q3" s="25" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="50.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -1457,10 +1574,10 @@
         <v>56</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="Q4" s="25" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="85.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1510,10 +1627,10 @@
         <v>64</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="Q5" s="25" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="77.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -1563,10 +1680,10 @@
         <v>74</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="Q6" s="25" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="81" thickBot="1" x14ac:dyDescent="0.3">
@@ -1616,10 +1733,10 @@
         <v>82</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="Q7" s="25" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
   </sheetData>
@@ -1632,8 +1749,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCC8C7F8-5D4E-4222-BBF1-4F0209FF96CA}">
   <dimension ref="A1:R20"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="P3" sqref="P3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1641,37 +1758,40 @@
     <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="25.28515625" customWidth="1"/>
+    <col min="17" max="17" width="26.42578125" customWidth="1"/>
+    <col min="18" max="18" width="19.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:18" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
         <v>27</v>
       </c>
       <c r="K1" s="19" t="s">
@@ -1689,17 +1809,17 @@
       <c r="O1" s="19" t="s">
         <v>162</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>192</v>
       </c>
       <c r="R1" s="22" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="65.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>83</v>
       </c>
@@ -1713,10 +1833,10 @@
         <v>90990999</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>86</v>
@@ -1728,7 +1848,7 @@
         <v>400000</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="K2" s="3" t="s">
         <v>163</v>
@@ -1746,13 +1866,14 @@
         <v>164</v>
       </c>
       <c r="P2" s="24" t="s">
-        <v>194</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" ht="65.25" thickBot="1" x14ac:dyDescent="0.3">
+        <v>260</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="R2" s="1"/>
+    </row>
+    <row r="3" spans="1:18" ht="37.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>87</v>
       </c>
@@ -1766,10 +1887,10 @@
         <v>874870138</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="G3" s="13" t="s">
         <v>90</v>
@@ -1781,7 +1902,7 @@
         <v>9000000</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="K3" s="3" t="s">
         <v>165</v>
@@ -1799,13 +1920,14 @@
         <v>164</v>
       </c>
       <c r="P3" s="24" t="s">
-        <v>194</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" ht="65.25" thickBot="1" x14ac:dyDescent="0.3">
+        <v>225</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="R3" s="1"/>
+    </row>
+    <row r="4" spans="1:18" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>91</v>
       </c>
@@ -1819,10 +1941,10 @@
         <v>232484368</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G4" s="13" t="s">
         <v>94</v>
@@ -1834,7 +1956,7 @@
         <v>2000000</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K4" s="3" t="s">
         <v>67</v>
@@ -1852,13 +1974,14 @@
         <v>164</v>
       </c>
       <c r="P4" s="24" t="s">
-        <v>194</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" ht="65.25" thickBot="1" x14ac:dyDescent="0.3">
+        <v>226</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="R4" s="1"/>
+    </row>
+    <row r="5" spans="1:18" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>95</v>
       </c>
@@ -1872,10 +1995,10 @@
         <v>746934679</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G5" s="13" t="s">
         <v>98</v>
@@ -1887,7 +2010,7 @@
         <v>500000</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K5" s="20" t="s">
         <v>166</v>
@@ -1905,13 +2028,14 @@
         <v>164</v>
       </c>
       <c r="P5" s="24" t="s">
-        <v>194</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" ht="65.25" thickBot="1" x14ac:dyDescent="0.3">
+        <v>227</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="R5" s="1"/>
+    </row>
+    <row r="6" spans="1:18" ht="37.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="15" t="s">
         <v>99</v>
       </c>
@@ -1925,10 +2049,10 @@
         <v>49883429</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G6" s="13" t="s">
         <v>102</v>
@@ -1940,7 +2064,7 @@
         <v>2000000</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K6" s="20" t="s">
         <v>167</v>
@@ -1958,13 +2082,14 @@
         <v>164</v>
       </c>
       <c r="P6" s="24" t="s">
-        <v>194</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" ht="65.25" thickBot="1" x14ac:dyDescent="0.3">
+        <v>228</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="R6" s="1"/>
+    </row>
+    <row r="7" spans="1:18" ht="61.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>103</v>
       </c>
@@ -1978,10 +2103,10 @@
         <v>83834083</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G7" s="13" t="s">
         <v>106</v>
@@ -1993,7 +2118,7 @@
         <v>3000000</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K7" s="3" t="s">
         <v>168</v>
@@ -2011,13 +2136,14 @@
         <v>164</v>
       </c>
       <c r="P7" s="24" t="s">
-        <v>194</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" ht="65.25" thickBot="1" x14ac:dyDescent="0.3">
+        <v>235</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="R7" s="1"/>
+    </row>
+    <row r="8" spans="1:18" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="15" t="s">
         <v>107</v>
       </c>
@@ -2031,10 +2157,10 @@
         <v>82789347</v>
       </c>
       <c r="E8" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="F8" s="3" t="s">
         <v>196</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>198</v>
       </c>
       <c r="G8" s="13" t="s">
         <v>110</v>
@@ -2046,7 +2172,7 @@
         <v>1500000</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>42</v>
@@ -2064,13 +2190,14 @@
         <v>164</v>
       </c>
       <c r="P8" s="24" t="s">
-        <v>194</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" ht="65.25" thickBot="1" x14ac:dyDescent="0.3">
+        <v>229</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="R8" s="1"/>
+    </row>
+    <row r="9" spans="1:18" ht="37.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>111</v>
       </c>
@@ -2084,10 +2211,10 @@
         <v>83489349</v>
       </c>
       <c r="E9" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="F9" s="3" t="s">
         <v>196</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>198</v>
       </c>
       <c r="G9" s="13" t="s">
         <v>114</v>
@@ -2099,7 +2226,7 @@
         <v>3000000</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K9" s="3" t="s">
         <v>42</v>
@@ -2117,13 +2244,14 @@
         <v>164</v>
       </c>
       <c r="P9" s="24" t="s">
-        <v>194</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" ht="65.25" thickBot="1" x14ac:dyDescent="0.3">
+        <v>230</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="R9" s="1"/>
+    </row>
+    <row r="10" spans="1:18" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>115</v>
       </c>
@@ -2137,10 +2265,10 @@
         <v>87439862</v>
       </c>
       <c r="E10" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="F10" s="3" t="s">
         <v>196</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>198</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>118</v>
@@ -2152,7 +2280,7 @@
         <v>5000000</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K10" s="3" t="s">
         <v>42</v>
@@ -2170,13 +2298,14 @@
         <v>164</v>
       </c>
       <c r="P10" s="24" t="s">
-        <v>194</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" ht="65.25" thickBot="1" x14ac:dyDescent="0.3">
+        <v>231</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="R10" s="1"/>
+    </row>
+    <row r="11" spans="1:18" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>119</v>
       </c>
@@ -2190,10 +2319,10 @@
         <v>83798309</v>
       </c>
       <c r="E11" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="F11" s="3" t="s">
         <v>196</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>198</v>
       </c>
       <c r="G11" s="13" t="s">
         <v>122</v>
@@ -2205,7 +2334,7 @@
         <v>1000000</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K11" s="4" t="s">
         <v>67</v>
@@ -2223,13 +2352,14 @@
         <v>164</v>
       </c>
       <c r="P11" s="24" t="s">
-        <v>194</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" ht="65.25" thickBot="1" x14ac:dyDescent="0.3">
+        <v>241</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="R11" s="1"/>
+    </row>
+    <row r="12" spans="1:18" ht="37.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="15" t="s">
         <v>123</v>
       </c>
@@ -2243,10 +2373,10 @@
         <v>93829282</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="G12" s="13" t="s">
         <v>126</v>
@@ -2258,7 +2388,7 @@
         <v>5000000</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="K12" s="4" t="s">
         <v>67</v>
@@ -2276,13 +2406,14 @@
         <v>164</v>
       </c>
       <c r="P12" s="24" t="s">
-        <v>194</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" ht="65.25" thickBot="1" x14ac:dyDescent="0.3">
+        <v>242</v>
+      </c>
+      <c r="Q12" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="R12" s="1"/>
+    </row>
+    <row r="13" spans="1:18" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="15" t="s">
         <v>127</v>
       </c>
@@ -2296,10 +2427,10 @@
         <v>830908888</v>
       </c>
       <c r="E13" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="F13" s="3" t="s">
         <v>196</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>198</v>
       </c>
       <c r="G13" s="13" t="s">
         <v>130</v>
@@ -2311,7 +2442,7 @@
         <v>1000000</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K13" s="3" t="s">
         <v>169</v>
@@ -2329,16 +2460,16 @@
         <v>164</v>
       </c>
       <c r="P13" s="24" t="s">
-        <v>194</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>193</v>
-      </c>
-      <c r="R13" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" ht="65.25" thickBot="1" x14ac:dyDescent="0.3">
+        <v>244</v>
+      </c>
+      <c r="Q13" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="R13" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="15" t="s">
         <v>131</v>
       </c>
@@ -2352,10 +2483,10 @@
         <v>823782</v>
       </c>
       <c r="E14" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="F14" s="3" t="s">
         <v>196</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>198</v>
       </c>
       <c r="G14" s="13" t="s">
         <v>133</v>
@@ -2367,7 +2498,7 @@
         <v>1000000</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K14" s="4" t="s">
         <v>67</v>
@@ -2385,16 +2516,16 @@
         <v>164</v>
       </c>
       <c r="P14" s="24" t="s">
-        <v>194</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>193</v>
-      </c>
-      <c r="R14" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" ht="65.25" thickBot="1" x14ac:dyDescent="0.3">
+        <v>245</v>
+      </c>
+      <c r="Q14" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="R14" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="15" t="s">
         <v>134</v>
       </c>
@@ -2408,10 +2539,10 @@
         <v>209898</v>
       </c>
       <c r="E15" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="F15" s="3" t="s">
         <v>196</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>198</v>
       </c>
       <c r="G15" s="13" t="s">
         <v>137</v>
@@ -2423,7 +2554,7 @@
         <v>1000000</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K15" s="4" t="s">
         <v>67</v>
@@ -2441,13 +2572,16 @@
         <v>164</v>
       </c>
       <c r="P15" s="24" t="s">
-        <v>194</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" ht="65.25" thickBot="1" x14ac:dyDescent="0.3">
+        <v>249</v>
+      </c>
+      <c r="Q15" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="R15" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>138</v>
       </c>
@@ -2461,10 +2595,10 @@
         <v>84738937</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G16" s="13" t="s">
         <v>141</v>
@@ -2476,7 +2610,7 @@
         <v>3000000</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K16" s="4" t="s">
         <v>67</v>
@@ -2494,13 +2628,14 @@
         <v>164</v>
       </c>
       <c r="P16" s="24" t="s">
-        <v>194</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" ht="65.25" thickBot="1" x14ac:dyDescent="0.3">
+        <v>250</v>
+      </c>
+      <c r="Q16" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="R16" s="1"/>
+    </row>
+    <row r="17" spans="1:18" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="15" t="s">
         <v>142</v>
       </c>
@@ -2514,10 +2649,10 @@
         <v>9292989</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G17" s="13" t="s">
         <v>145</v>
@@ -2529,7 +2664,7 @@
         <v>1000000</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K17" s="21" t="s">
         <v>170</v>
@@ -2547,13 +2682,14 @@
         <v>164</v>
       </c>
       <c r="P17" s="24" t="s">
-        <v>194</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" ht="65.25" thickBot="1" x14ac:dyDescent="0.3">
+        <v>252</v>
+      </c>
+      <c r="Q17" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="R17" s="1"/>
+    </row>
+    <row r="18" spans="1:18" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="15" t="s">
         <v>146</v>
       </c>
@@ -2567,10 +2703,10 @@
         <v>87836842</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G18" s="13" t="s">
         <v>149</v>
@@ -2582,7 +2718,7 @@
         <v>1000000</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K18" s="20" t="s">
         <v>166</v>
@@ -2600,13 +2736,14 @@
         <v>164</v>
       </c>
       <c r="P18" s="24" t="s">
-        <v>194</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" ht="65.25" thickBot="1" x14ac:dyDescent="0.3">
+        <v>253</v>
+      </c>
+      <c r="Q18" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="R18" s="1"/>
+    </row>
+    <row r="19" spans="1:18" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>150</v>
       </c>
@@ -2620,10 +2757,10 @@
         <v>2748478</v>
       </c>
       <c r="E19" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="F19" s="3" t="s">
         <v>197</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>199</v>
       </c>
       <c r="G19" s="13" t="s">
         <v>153</v>
@@ -2635,7 +2772,7 @@
         <v>1000000</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="K19" s="21" t="s">
         <v>171</v>
@@ -2653,13 +2790,14 @@
         <v>164</v>
       </c>
       <c r="P19" s="24" t="s">
-        <v>194</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" ht="65.25" thickBot="1" x14ac:dyDescent="0.3">
+        <v>254</v>
+      </c>
+      <c r="Q19" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="R19" s="1"/>
+    </row>
+    <row r="20" spans="1:18" ht="61.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="15" t="s">
         <v>154</v>
       </c>
@@ -2673,10 +2811,10 @@
         <v>79787276</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G20" s="13" t="s">
         <v>157</v>
@@ -2688,7 +2826,7 @@
         <v>1000000</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K20" s="3" t="s">
         <v>49</v>
@@ -2706,11 +2844,12 @@
         <v>164</v>
       </c>
       <c r="P20" s="24" t="s">
-        <v>194</v>
-      </c>
-      <c r="Q20" t="s">
-        <v>193</v>
-      </c>
+        <v>258</v>
+      </c>
+      <c r="Q20" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="R20" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2877,8 +3016,194 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3043CF5B-2AB1-43A7-8828-7F3E24F36084}">
+  <dimension ref="A1:C23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+    </row>
+    <row r="3" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="C3" s="3"/>
+    </row>
+    <row r="4" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="C4" s="3"/>
+    </row>
+    <row r="5" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="3"/>
+    </row>
+    <row r="6" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="C6" s="3"/>
+    </row>
+    <row r="7" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="3"/>
+    </row>
+    <row r="9" spans="1:3" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="23" t="s">
+        <v>188</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="C9" s="3"/>
+    </row>
+    <row r="10" spans="1:3" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="23" t="s">
+        <v>188</v>
+      </c>
+      <c r="C10" s="3"/>
+    </row>
+    <row r="11" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+    </row>
+    <row r="12" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+    </row>
+    <row r="13" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+    </row>
+    <row r="14" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+    </row>
+    <row r="15" spans="1:3" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+    </row>
+    <row r="16" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+    </row>
+    <row r="17" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+    </row>
+    <row r="18" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+    </row>
+    <row r="19" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+    </row>
+    <row r="20" spans="1:3" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+    </row>
+    <row r="21" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+    </row>
+    <row r="22" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+    </row>
+    <row r="23" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BEB9776-B206-4A46-8548-3096CFBA0B28}">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
@@ -2906,220 +3231,47 @@
         <v>190</v>
       </c>
       <c r="B2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C2" t="s">
+        <v>201</v>
+      </c>
+      <c r="D2" t="s">
         <v>202</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>203</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>204</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
         <v>205</v>
       </c>
-      <c r="F2" t="s">
+      <c r="H2" t="s">
         <v>206</v>
-      </c>
-      <c r="G2" t="s">
-        <v>207</v>
-      </c>
-      <c r="H2" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B3" t="s">
-        <v>210</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3043CF5B-2AB1-43A7-8828-7F3E24F36084}">
-  <dimension ref="A1:C23"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-    </row>
-    <row r="3" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="C3" s="3"/>
-    </row>
-    <row r="4" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="C4" s="3"/>
-    </row>
-    <row r="5" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C5" s="3"/>
-    </row>
-    <row r="6" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="C6" s="3"/>
-    </row>
-    <row r="7" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C8" s="3"/>
-    </row>
-    <row r="9" spans="1:3" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="23" t="s">
-        <v>188</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="C9" s="3"/>
-    </row>
-    <row r="10" spans="1:3" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B10" s="23" t="s">
-        <v>188</v>
-      </c>
-      <c r="C10" s="3"/>
-    </row>
-    <row r="11" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-    </row>
-    <row r="12" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-    </row>
-    <row r="13" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-    </row>
-    <row r="14" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-    </row>
-    <row r="15" spans="1:3" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-    </row>
-    <row r="16" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-    </row>
-    <row r="17" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-    </row>
-    <row r="18" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-    </row>
-    <row r="19" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-    </row>
-    <row r="20" spans="1:3" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-    </row>
-    <row r="21" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-    </row>
-    <row r="22" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-    </row>
-    <row r="23" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
+        <v>208</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>222</v>
+      </c>
+      <c r="B5" t="s">
+        <v>223</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ScriptsDocs/JDdata .xlsx
+++ b/ScriptsDocs/JDdata .xlsx
@@ -16,7 +16,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="268">
   <si>
     <t>Client name</t>
   </si>
@@ -839,11 +839,30 @@
   <si>
     <t>./ScriptsDocs/resumes/Veera-Gopisettyfirefox.exe</t>
   </si>
+  <si>
+    <t>JD_P91669093527</t>
+  </si>
+  <si>
+    <t>JD_O41669117470</t>
+  </si>
+  <si>
+    <t>JD_F71669121129</t>
+  </si>
+  <si>
+    <t>JD_U21669121330</t>
+  </si>
+  <si>
+    <t>CA_A41669121418</t>
+  </si>
+  <si>
+    <t>CA_O11669122506</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1353,71 +1372,71 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="37.42578125" customWidth="1"/>
-    <col min="12" max="12" width="38.28515625" customWidth="1"/>
-    <col min="14" max="14" width="31.5703125" customWidth="1"/>
-    <col min="15" max="15" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="32" customWidth="1"/>
-    <col min="17" max="17" width="45.28515625" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="5.42578125"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="13.140625"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="14.5703125"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="1" width="10.42578125"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="14.42578125"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="10.0"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="10.28515625"/>
+    <col min="11" max="11" customWidth="true" width="37.42578125"/>
+    <col min="12" max="12" customWidth="true" width="38.28515625"/>
+    <col min="14" max="14" customWidth="true" width="31.5703125"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="12.140625"/>
+    <col min="16" max="16" customWidth="true" width="32.0"/>
+    <col min="17" max="17" customWidth="true" width="45.28515625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" t="s" s="0">
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" t="s" s="0">
         <v>12</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" t="s" s="0">
         <v>16</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" t="s" s="0">
         <v>15</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" t="s" s="0">
         <v>191</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" t="s" s="0">
         <v>192</v>
       </c>
     </row>
@@ -1755,12 +1774,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="25.28515625" customWidth="1"/>
-    <col min="17" max="17" width="26.42578125" customWidth="1"/>
-    <col min="18" max="18" width="19.28515625" customWidth="1"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="14.85546875"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="10.85546875"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="9.85546875"/>
+    <col min="16" max="16" customWidth="true" width="25.28515625"/>
+    <col min="17" max="17" customWidth="true" width="26.42578125"/>
+    <col min="18" max="18" customWidth="true" width="19.28515625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2141,7 +2160,9 @@
       <c r="Q7" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="R7" s="1"/>
+      <c r="R7" t="s" s="0">
+        <v>266</v>
+      </c>
     </row>
     <row r="8" spans="1:18" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="15" t="s">
@@ -2357,7 +2378,9 @@
       <c r="Q11" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="R11" s="1"/>
+      <c r="R11" t="s" s="0">
+        <v>208</v>
+      </c>
     </row>
     <row r="12" spans="1:18" ht="37.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="15" t="s">
@@ -2411,7 +2434,9 @@
       <c r="Q12" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="R12" s="1"/>
+      <c r="R12" t="s" s="0">
+        <v>267</v>
+      </c>
     </row>
     <row r="13" spans="1:18" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="15" t="s">
@@ -2867,145 +2892,145 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>37</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="0">
         <v>60</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" t="s" s="0">
         <v>175</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="0">
         <v>30</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" t="s" s="0">
         <v>174</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="0">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" t="s" s="0">
         <v>73</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="0">
         <v>30</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" t="s" s="0">
         <v>176</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="0">
         <v>15</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" t="s" s="0">
         <v>173</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="0">
         <v>15</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" t="s" s="0">
         <v>56</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="0">
         <v>30</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" t="s" s="0">
         <v>177</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="0">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="0">
         <v>30</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" t="s" s="0">
         <v>56</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="0">
         <v>30</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" t="s" s="0">
         <v>178</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="0">
         <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" t="s" s="0">
         <v>63</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="0">
         <v>30</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" t="s" s="0">
         <v>179</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="0">
         <v>30</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" t="s" s="0">
         <v>180</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="0">
         <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" t="s" s="0">
         <v>73</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="0">
         <v>30</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" t="s" s="0">
         <v>181</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="0">
         <v>30</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" t="s" s="0">
         <v>173</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="0">
         <v>20</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" t="s" s="0">
         <v>176</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="0">
         <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" t="s" s="0">
         <v>37</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="0">
         <v>60</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" t="s" s="0">
         <v>182</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="0">
         <v>30</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" t="s" s="0">
         <v>174</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="0">
         <v>10</v>
       </c>
     </row>
@@ -3026,7 +3051,7 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>183</v>
       </c>
     </row>
@@ -3203,7 +3228,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BEB9776-B206-4A46-8548-3096CFBA0B28}">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
@@ -3211,66 +3236,95 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="16.42578125"/>
+    <col min="2" max="3" bestFit="true" customWidth="true" width="17.42578125"/>
+    <col min="4" max="5" bestFit="true" customWidth="true" width="16.5703125"/>
+    <col min="6" max="7" bestFit="true" customWidth="true" width="16.85546875"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="17.0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>31</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>189</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>190</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" t="s" s="0">
         <v>200</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" t="s" s="0">
         <v>201</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" t="s" s="0">
         <v>202</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" t="s" s="0">
         <v>203</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" t="s" s="0">
         <v>204</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s" s="0">
         <v>205</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" t="s" s="0">
         <v>206</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" t="s" s="0">
         <v>207</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" t="s" s="0">
         <v>208</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" t="s" s="0">
         <v>221</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" t="s" s="0">
         <v>222</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" t="s" s="0">
         <v>223</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="0">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="0">
+        <v>263</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="0">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="0">
+        <v>265</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>266</v>
+      </c>
+      <c r="C9" t="s" s="0">
+        <v>267</v>
       </c>
     </row>
   </sheetData>
